--- a/team_specific_matrix/Bethesda (CA)_B.xlsx
+++ b/team_specific_matrix/Bethesda (CA)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.6037735849056604</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.05521472392638037</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.05521472392638037</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.06748466257668712</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.03067484662576687</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.049079754601227</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.5828220858895705</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5303030303030303</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.04524886877828054</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.1855203619909502</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.5067873303167421</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1460674157303371</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.2022471910112359</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.02682926829268293</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04146341463414634</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.04146341463414634</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1414634146341463</v>
       </c>
     </row>
   </sheetData>
